--- a/Resources/expanded_scorelist.xlsx
+++ b/Resources/expanded_scorelist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zcczs-my.sharepoint.com/personal/manyuclasses_npcomputers_eu_org/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nota1\Documents\GitHub\Tern\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{B8C4239F-4F19-4854-BE6B-F262E2E1027E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{010D0F94-FA46-4A1A-B198-A3985F1D577A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710405FF-51D1-427C-B2EF-EB87C29D6ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{C1C1BB56-D61C-4640-9234-78CC0E2BEE5F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C1C1BB56-D61C-4640-9234-78CC0E2BEE5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Score List Expanded(7) 060225 1" sheetId="1" r:id="rId1"/>
@@ -1892,25 +1892,25 @@
   <dimension ref="A1:AD79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="11" width="0" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="112" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="93.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="114.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="93.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="114.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="0" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="0" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="18.7109375" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="18.6640625" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>242001</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>48.332999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>242002</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>37</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>22</v>
@@ -2168,7 +2168,7 @@
         <v>58.332999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>242003</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>38.332999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>242004</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>38.332999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>242005</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>242006</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>242007</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>73.332999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>242008</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>26.667000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>242009</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>33.332999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>242010</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>41.667000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>242011</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>56.667000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>242012</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>38.332999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>242013</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>46.667000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>242015</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>33.332999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>242016</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>242017</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>66.667000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>242018</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>46.667000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>242019</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>242020</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>21.667000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>242021</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>48.332999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>242022</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>63.332999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>242023</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>28.332999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>242024</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>28.332999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>242025</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>242026</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>242027</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>63.332999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>242028</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>242029</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>242031</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>66.667000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>242032</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>51.667000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>242033</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>242034</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>41.667000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>242036</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>48.332999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>242037</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>242038</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>51.667000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>242039</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>41.667000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>242040</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>36.667000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>242041</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>33.332999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>242042</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>21.667000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>242043</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>53.332999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>242044</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>242045</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>33.332999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>242046</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>242047</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>61.667000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>242048</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>46.667000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>242049</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>28.332999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>242056</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>43.332999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>242057</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>43.332999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>242058</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>242059</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>242060</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>242062</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>23.332999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>242063</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>33.332999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>242064</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>61.667000000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>242065</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>63.332999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>242066</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>23.332999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>242067</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>38.332999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>242068</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>26.667000000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>242069</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>26.667000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>242070</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>43.332999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>242071</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>46.667000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>242072</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>242073</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>53.332999999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>242074</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>71.667000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>242076</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>242077</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>53.332999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>242079</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>71.667000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>242080</v>
       </c>
@@ -7631,7 +7631,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>242081</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>242083</v>
       </c>
@@ -7797,7 +7797,7 @@
         <v>36.667000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>242085</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>242086</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>242087</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>46.667000000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>242089</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>242091</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>242092</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>53.332999999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>242093</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>242094</v>
       </c>
